--- a/barrier_comparison.xlsx
+++ b/barrier_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atlas\Desktop\alloy\alloy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C603D-6CFB-4A20-95D0-D0A0910DCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D084BC1-33ED-47A4-BFB8-7D7BE70EB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="1420" windowWidth="28050" windowHeight="16510" xr2:uid="{9B338250-E150-430A-905D-941990835157}"/>
+    <workbookView xWindow="-21360" yWindow="9260" windowWidth="20910" windowHeight="16510" xr2:uid="{9B338250-E150-430A-905D-941990835157}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,212 +115,238 @@
     <t>VK_PIPELINE_STAGE_NONE</t>
   </si>
   <si>
+    <t>VK_PIPELINE_STAGE_ACCELERATION_STRUCTURE_BUILD_BIT_KHR</t>
+  </si>
+  <si>
+    <t>AccessBits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON,</t>
+  </si>
+  <si>
+    <t>VERTEX_BUFFER,</t>
+  </si>
+  <si>
+    <t>CONSTANT_BUFFER,</t>
+  </si>
+  <si>
+    <t>INDEX_BUFFER,</t>
+  </si>
+  <si>
+    <t>UNORDERED_ACCESS,</t>
+  </si>
+  <si>
+    <t>DEPTH_STENCIL_WRITE,</t>
+  </si>
+  <si>
+    <t>DEPTH_STENCIL_READ,</t>
+  </si>
+  <si>
+    <t>SHADER_RESOURCE,</t>
+  </si>
+  <si>
+    <t>STREAM_OUTPUT,</t>
+  </si>
+  <si>
+    <t>INDIRECT_ARGUMENT,</t>
+  </si>
+  <si>
+    <t>PREDICATION,</t>
+  </si>
+  <si>
+    <t>COPY_DEST,</t>
+  </si>
+  <si>
+    <t>COPY_SOURCE,</t>
+  </si>
+  <si>
+    <t>RESOLVE_DEST,</t>
+  </si>
+  <si>
+    <t>RESOLVE_SOURCE,</t>
+  </si>
+  <si>
+    <t>RAYTRACING_ACCELERATION_STRUCTURE_READ,</t>
+  </si>
+  <si>
+    <t>RAYTRACING_ACCELERATION_STRUCTURE_WRITE,</t>
+  </si>
+  <si>
+    <t>SHADING_RATE_SOURCE,</t>
+  </si>
+  <si>
+    <t>NO_ACCESS,</t>
+  </si>
+  <si>
+    <t>VK_ACCESS_TRANSFER_READ_BIT</t>
+  </si>
+  <si>
+    <t>UNORDERED_ACCESS,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_SHADER_READ_BIT | VK_ACCESS_SHADER_WRITE_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_SHADER_READ_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_MEMORY_READ_BIT | VK_ACCESS_MEMORY_WRITE_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_ACCELERATION_STRUCTURE_WRITE_BIT_KHR</t>
+  </si>
+  <si>
+    <t>VK_ACCESS_COLOR_ATTACHMENT_READ_BIT | VK_ACCESS_COLOR_ATTACHMENT_WRITE_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_PIPELINE_STAGE_TRANSFER_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_PIPELINE_STAGE_EARLY_FRAGMENT_TESTS_BIT | VK_PIPELINE_STAGE_FRAGMENT_SHADER_BIT | VK_PIPELINE_STAGE_LATE_FRAGMENT_TESTS_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageLayout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>COMMON_READ,</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON / PRESENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_IMAGE_LAYOUT_UNDEFINED</t>
+  </si>
+  <si>
+    <t>VK_IMAGE_LAYOUT_DEPTH_STENCIL_READ_ONLY_OPTIMAL ??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_IMAGE_LAYOUT_TRANSFER_DST_OPTIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_IMAGE_LAYOUT_TRANSFER_SRC_OPTIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_PIPELINE_STAGE_VERTEX_INPUT_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_PIPELINE_STAGE_VERTEX_SHADER_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_PIPELINE_STAGE_COLOR_ATTACHMENT_OUTPUT_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_PIPELINE_STAGE_COMPUTE_SHADER_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_PIPELINE_STAGE_RAY_TRACING_SHADER_BIT_KHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>VK_PIPELINE_STAGE_DRAW_INDIRECT_BIT</t>
-  </si>
-  <si>
-    <t>VK_PIPELINE_STAGE_VERTEX_INPUT_BIT</t>
-  </si>
-  <si>
-    <t>VK_PIPELINE_STAGE_VERTEX_SHADER_BIT</t>
-  </si>
-  <si>
-    <t>VK_PIPELINE_STAGE_COMPUTE_SHADER_BIT</t>
-  </si>
-  <si>
-    <t>VK_PIPELINE_STAGE_ACCELERATION_STRUCTURE_BUILD_BIT_KHR</t>
-  </si>
-  <si>
-    <t>VK_PIPELINE_STAGE_RAY_TRACING_SHADER_BIT_KHR</t>
-  </si>
-  <si>
-    <t>VK_PIPELINE_STAGE_COLOR_ATTACHMENT_OUTPUT_BIT</t>
-  </si>
-  <si>
-    <t>AccessBits</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON,</t>
-  </si>
-  <si>
-    <t>VERTEX_BUFFER,</t>
-  </si>
-  <si>
-    <t>CONSTANT_BUFFER,</t>
-  </si>
-  <si>
-    <t>INDEX_BUFFER,</t>
-  </si>
-  <si>
-    <t>UNORDERED_ACCESS,</t>
-  </si>
-  <si>
-    <t>DEPTH_STENCIL_WRITE,</t>
-  </si>
-  <si>
-    <t>DEPTH_STENCIL_READ,</t>
-  </si>
-  <si>
-    <t>SHADER_RESOURCE,</t>
-  </si>
-  <si>
-    <t>STREAM_OUTPUT,</t>
-  </si>
-  <si>
-    <t>INDIRECT_ARGUMENT,</t>
-  </si>
-  <si>
-    <t>PREDICATION,</t>
-  </si>
-  <si>
-    <t>COPY_DEST,</t>
-  </si>
-  <si>
-    <t>COPY_SOURCE,</t>
-  </si>
-  <si>
-    <t>RESOLVE_DEST,</t>
-  </si>
-  <si>
-    <t>RESOLVE_SOURCE,</t>
-  </si>
-  <si>
-    <t>RAYTRACING_ACCELERATION_STRUCTURE_READ,</t>
-  </si>
-  <si>
-    <t>RAYTRACING_ACCELERATION_STRUCTURE_WRITE,</t>
-  </si>
-  <si>
-    <t>SHADING_RATE_SOURCE,</t>
-  </si>
-  <si>
-    <t>NO_ACCESS,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_VERTEX_ATTRIBUTE_READ_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_UNIFORM_READ_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_INDEX_READ_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_DEPTH_STENCIL_ATTACHMENT_WRITE_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_DEPTH_STENCIL_ATTACHMENT_READ_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_TRANSFORM_FEEDBACK_WRITE_BIT_EXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_INDIRECT_COMMAND_READ_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_CONDITIONAL_RENDERING_READ_BIT_EXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_TRANSFER_WRITE_BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_ACCELERATION_STRUCTURE_READ_BIT_KHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_ACCESS_FRAGMENT_SHADING_RATE_ATTACHMENT_READ_BIT_KHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VK_ACCESS_NONE</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_TRANSFER_READ_BIT</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_TRANSFER_WRITE_BIT</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_INDEX_READ_BIT</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_INDIRECT_COMMAND_READ_BIT</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_VERTEX_ATTRIBUTE_READ_BIT</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_UNIFORM_READ_BIT</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_DEPTH_STENCIL_ATTACHMENT_READ_BIT</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_DEPTH_STENCIL_ATTACHMENT_WRITE_BIT</t>
-  </si>
-  <si>
-    <t>UNORDERED_ACCESS,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VK_ACCESS_SHADER_READ_BIT | VK_ACCESS_SHADER_WRITE_BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VK_ACCESS_SHADER_READ_BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VK_ACCESS_MEMORY_READ_BIT | VK_ACCESS_MEMORY_WRITE_BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VK_ACCESS_ACCELERATION_STRUCTURE_READ_BIT_KHR</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_ACCELERATION_STRUCTURE_WRITE_BIT_KHR</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_FRAGMENT_SHADING_RATE_ATTACHMENT_READ_BIT_KHR</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_COLOR_ATTACHMENT_READ_BIT | VK_ACCESS_COLOR_ATTACHMENT_WRITE_BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VK_ACCESS_TRANSFORM_FEEDBACK_WRITE_BIT_EXT</t>
-  </si>
-  <si>
-    <t>VK_ACCESS_CONDITIONAL_RENDERING_READ_BIT_EXT</t>
-  </si>
-  <si>
-    <t>VK_PIPELINE_STAGE_TRANSFER_BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VK_PIPELINE_STAGE_EARLY_FRAGMENT_TESTS_BIT | VK_PIPELINE_STAGE_FRAGMENT_SHADER_BIT | VK_PIPELINE_STAGE_LATE_FRAGMENT_TESTS_BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageLayout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNDEFINED</t>
-  </si>
-  <si>
-    <t>COMMON_READ,</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON / PRESENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VK_IMAGE_LAYOUT_UNDEFINED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VK_IMAGE_LAYOUT_GENERAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_IMAGE_LAYOUT_READ_ONLY_OPTIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK_IMAGE_LAYOUT_PRESENT_SRC_KHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VK_IMAGE_LAYOUT_COLOR_ATTACHMENT_OPTIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VK_IMAGE_LAYOUT_DEPTH_STENCIL_ATTACHMENT_OPTIMAL</t>
-  </si>
-  <si>
-    <t>VK_IMAGE_LAYOUT_DEPTH_STENCIL_READ_ONLY_OPTIMAL ??</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VK_IMAGE_LAYOUT_TRANSFER_SRC_OPTIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VK_IMAGE_LAYOUT_TRANSFER_DST_OPTIMAL</t>
-  </si>
-  <si>
-    <t>VK_IMAGE_LAYOUT_READ_ONLY_OPTIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VK_IMAGE_LAYOUT_FRAGMENT_SHADING_RATE_ATTACHMENT_OPTIMAL_KHR</t>
-  </si>
-  <si>
-    <t>VK_IMAGE_LAYOUT_PRESENT_SRC_KHR</t>
-  </si>
-  <si>
-    <t>VK_IMAGE_LAYOUT_TRANSFER_DST_OPTIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VK_IMAGE_LAYOUT_TRANSFER_SRC_OPTIMAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -415,9 +441,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,7 +481,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -561,7 +587,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,7 +729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,7 +740,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -753,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -761,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -769,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -782,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -790,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -798,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -806,7 +832,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -819,7 +845,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -832,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -842,7 +868,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -855,34 +881,34 @@
     </row>
     <row r="20" spans="1:4" ht="14.5">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.5">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.5">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.5">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.5">
@@ -890,127 +916,127 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.5">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.5">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.5">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.5">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="14.5">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.5">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.5">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.5">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.5">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.5">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.5">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.5">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.5">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.5">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.5">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.5">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.5">
@@ -1026,34 +1052,34 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1061,79 +1087,79 @@
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
